--- a/Data/aearep-1175/candidatepackages.xlsx
+++ b/Data/aearep-1175/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,9 +22,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
@@ -43,15 +40,15 @@
     <t>confirmdir</t>
   </si>
   <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>mediation</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>mediation</t>
-  </si>
-  <si>
     <t>surface</t>
   </si>
   <si>
@@ -61,12 +58,12 @@
     <t>ineq</t>
   </si>
   <si>
+    <t>split</t>
+  </si>
+  <si>
     <t>seg</t>
   </si>
   <si>
-    <t>split</t>
-  </si>
-  <si>
     <t>adjacent</t>
   </si>
   <si>
@@ -79,57 +76,48 @@
     <t>irr</t>
   </si>
   <si>
-    <t>lars</t>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>pre</t>
   </si>
   <si>
     <t>cv</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>map</t>
   </si>
   <si>
     <t>usespss</t>
   </si>
   <si>
+    <t>zip</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
+    <t>ascii</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
     <t>roman</t>
   </si>
   <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>ascii</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>subset</t>
+  </si>
+  <si>
+    <t>sunflower</t>
   </si>
   <si>
     <t>majority</t>
   </si>
   <si>
-    <t>sunflower</t>
-  </si>
-  <si>
     <t>digits</t>
   </si>
   <si>
-    <t>subset</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -142,16 +130,10 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1175</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1175/120243/revision/AL_replication_package/Scripts</t>
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
   </si>
   <si>
     <t>AlsaceLorraine.do</t>
@@ -198,7 +180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D34"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -206,13 +188,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -232,7 +214,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -244,7 +226,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -256,7 +238,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -268,7 +250,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -280,7 +262,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -292,7 +274,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -304,7 +286,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>164</v>
+        <v>284</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -316,7 +298,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -328,7 +310,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -340,7 +322,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -352,10 +334,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>420</v>
+        <v>547</v>
       </c>
       <c r="C13">
-        <v>0.13925729691982269</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D13"/>
     </row>
@@ -364,10 +346,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>503</v>
+        <v>556</v>
       </c>
       <c r="C14">
-        <v>0.16677719354629517</v>
+        <v>0.18380165100097656</v>
       </c>
       <c r="D14"/>
     </row>
@@ -376,10 +358,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="C15">
-        <v>0.19031830132007599</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D15"/>
     </row>
@@ -388,10 +370,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>587</v>
+        <v>644</v>
       </c>
       <c r="C16">
-        <v>0.19462864100933075</v>
+        <v>0.2128925621509552</v>
       </c>
       <c r="D16"/>
     </row>
@@ -400,10 +382,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="C17">
-        <v>0.20092837512493134</v>
+        <v>0.22611570358276367</v>
       </c>
       <c r="D17"/>
     </row>
@@ -412,10 +394,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>654</v>
+        <v>712</v>
       </c>
       <c r="C18">
-        <v>0.21684350073337555</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D18"/>
     </row>
@@ -424,10 +406,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>745</v>
+        <v>998</v>
       </c>
       <c r="C19">
-        <v>0.24701590836048126</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D19"/>
     </row>
@@ -436,10 +418,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>985</v>
+        <v>1163</v>
       </c>
       <c r="C20">
-        <v>0.32659152150154114</v>
+        <v>0.38446280360221863</v>
       </c>
       <c r="D20"/>
     </row>
@@ -448,10 +430,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1123</v>
+        <v>1306</v>
       </c>
       <c r="C21">
-        <v>0.37234747409820557</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D21"/>
     </row>
@@ -460,10 +442,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1124</v>
+        <v>1428</v>
       </c>
       <c r="C22">
-        <v>0.37267905473709106</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D22"/>
     </row>
@@ -472,10 +454,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1424</v>
+        <v>1503</v>
       </c>
       <c r="C23">
-        <v>0.47214853763580322</v>
+        <v>0.49685949087142944</v>
       </c>
       <c r="D23"/>
     </row>
@@ -484,10 +466,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1472</v>
+        <v>1564</v>
       </c>
       <c r="C24">
-        <v>0.48806366324424744</v>
+        <v>0.51702481508255005</v>
       </c>
       <c r="D24"/>
     </row>
@@ -496,10 +478,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1553</v>
+        <v>1570</v>
       </c>
       <c r="C25">
-        <v>0.51492041349411011</v>
+        <v>0.51900827884674072</v>
       </c>
       <c r="D25"/>
     </row>
@@ -508,10 +490,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1565</v>
+        <v>1658</v>
       </c>
       <c r="C26">
-        <v>0.51889920234680176</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D26"/>
     </row>
@@ -520,10 +502,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1619</v>
+        <v>1678</v>
       </c>
       <c r="C27">
-        <v>0.5368037223815918</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D27"/>
     </row>
@@ -532,10 +514,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1621</v>
+        <v>1729</v>
       </c>
       <c r="C28">
-        <v>0.53746682405471802</v>
+        <v>0.57157027721405029</v>
       </c>
       <c r="D28"/>
     </row>
@@ -544,10 +526,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1745</v>
+        <v>1904</v>
       </c>
       <c r="C29">
-        <v>0.57858091592788696</v>
+        <v>0.62942147254943848</v>
       </c>
       <c r="D29"/>
     </row>
@@ -556,10 +538,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1753</v>
+        <v>1937</v>
       </c>
       <c r="C30">
-        <v>0.5812334418296814</v>
+        <v>0.64033055305480957</v>
       </c>
       <c r="D30"/>
     </row>
@@ -568,10 +550,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1798</v>
+        <v>1974</v>
       </c>
       <c r="C31">
-        <v>0.5961538553237915</v>
+        <v>0.65256196260452271</v>
       </c>
       <c r="D31"/>
     </row>
@@ -580,10 +562,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1810</v>
+        <v>2144</v>
       </c>
       <c r="C32">
-        <v>0.60013264417648315</v>
+        <v>0.70876032114028931</v>
       </c>
       <c r="D32"/>
     </row>
@@ -592,10 +574,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1817</v>
+        <v>2416</v>
       </c>
       <c r="C33">
-        <v>0.60245358943939209</v>
+        <v>0.79867768287658691</v>
       </c>
       <c r="D33"/>
     </row>
@@ -604,60 +586,12 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1859</v>
+        <v>2540</v>
       </c>
       <c r="C34">
-        <v>0.61637932062149048</v>
+        <v>0.83966940641403198</v>
       </c>
       <c r="D34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>2357</v>
-      </c>
-      <c r="C35">
-        <v>0.78149867057800293</v>
-      </c>
-      <c r="D35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>2365</v>
-      </c>
-      <c r="C36">
-        <v>0.78415119647979736</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2375</v>
-      </c>
-      <c r="C37">
-        <v>0.78746682405471802</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>2511</v>
-      </c>
-      <c r="C38">
-        <v>0.83255970478057861</v>
-      </c>
-      <c r="D38"/>
     </row>
   </sheetData>
 </worksheet>
@@ -665,31 +599,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
